--- a/data/trans_bre/P9_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P9_3-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,17</t>
+          <t>-8,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,29%</t>
+          <t>-13,3%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,75; 2,16</t>
+          <t>-19,29; 3,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 14,89</t>
+          <t>-10,39; 12,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 3,95</t>
+          <t>-29,76; 5,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 28,8</t>
+          <t>-15,44; 22,83</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>11,91</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>8,97%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 23,11</t>
+          <t>1,3; 22,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 17,31</t>
+          <t>-8,07; 17,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 61,1</t>
+          <t>2,98; 60,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 38,52</t>
+          <t>-12,86; 39,97</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,58</t>
+          <t>10,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>18,98%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 12,85</t>
+          <t>-3,95; 12,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 20,31</t>
+          <t>1,66; 21,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 22,99</t>
+          <t>-5,84; 22,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 40,69</t>
+          <t>2,96; 44,95</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,85%</t>
+          <t>-4,65%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,94; -3,07</t>
+          <t>-18,87; -2,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 6,46</t>
+          <t>-11,53; 5,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,19; -5,21</t>
+          <t>-28,25; -4,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 11,7</t>
+          <t>-17,88; 9,71</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,91</t>
+          <t>-7,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,03</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-15,57%</t>
+          <t>-15,58%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-9,57%</t>
+          <t>-10,03%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 1,64</t>
+          <t>-17,52; 1,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 5,13</t>
+          <t>-14,43; 5,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-31,73; 3,54</t>
+          <t>-30,3; 4,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 10,56</t>
+          <t>-25,11; 10,62</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,78</t>
+          <t>-7,77</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,78</t>
+          <t>-7,83</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-24,95%</t>
+          <t>-24,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-20,73%</t>
+          <t>-23,1%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 1,25</t>
+          <t>-16,39; 0,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 3,74</t>
+          <t>-18,23; 1,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,16; 4,97</t>
+          <t>-44,25; 3,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,99; 14,69</t>
+          <t>-44,79; 6,31</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>-1,38%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,19; -0,4</t>
+          <t>-8,09; 0,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 3,98</t>
+          <t>-4,98; 3,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,91; -0,79</t>
+          <t>-14,76; 0,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 7,96</t>
+          <t>-8,97; 7,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P9_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P9_3-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-8,18</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-13,3%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,91%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-8.177686737315682</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.4347932457766102</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.1329784372101413</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.007241224475182599</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-19,29; 3,1</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,39; 12,51</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-29,76; 5,49</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-15,44; 22,83</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-19.28750289030662</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-11.2915013340689</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.2975785024446525</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.172339244226728</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.102181845641947</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.56243287801511</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.05488984148131248</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.2149745902863993</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>11,91</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,74</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>25,59%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,97%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 22,9</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,07; 17,55</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,98; 60,93</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-12,86; 39,97</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>11.9112248943198</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.58111122072048</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.2559153880185831</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.08465715804395729</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,16</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10,86</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,73%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>18,98%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.304493830956043</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.351730370911451</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.02976351332087764</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.124643411792847</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,95; 12,73</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,66; 21,53</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,84; 22,2</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,96; 44,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>22.90185823372212</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>17.702466445464</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.6093076258350852</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.3826500138971424</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-10,69</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,82</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-17,17%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-4,65%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.163533801247665</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>10.00234645072307</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.06729391778204209</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1732532439687538</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-18,87; -2,39</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-11,53; 5,47</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-28,25; -4,88</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-17,88; 9,71</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.953335364637628</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.7351720038185132</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.05838703872591106</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.01200666038464636</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.73354511698132</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>22.59575522266191</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.2219692450308495</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.4682876756291656</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-7,92</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-5,29</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-15,58%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-10,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-17,52; 1,61</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-14,43; 5,26</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-30,3; 4,09</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-25,11; 10,62</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-10.68754367711309</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.028243709537435</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1717198068634398</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.01719541616028939</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-7,77</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-7,83</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-24,92%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-23,1%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-18.86694141319049</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-9.479092817387604</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2825440303304883</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1490109223567543</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-16,39; 0,95</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-18,23; 1,45</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-44,25; 3,7</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-44,79; 6,31</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-2.393953277982757</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.51068641865666</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.04876153705299458</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.1353620309215853</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-4,22</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,74</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-7,98%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,38%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-7.920099907996664</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-4.205505847011704</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-0.1557682201270504</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.08120639963411098</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,09; 0,08</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,98; 3,87</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-14,76; 0,06</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-8,97; 7,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-17.51525536889207</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-13.73079376988961</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.3030051362308634</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.2397733560722975</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>1.609474699559627</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.371037459785109</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.04089015492370872</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.1348277477498263</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-7.772190213391983</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-6.423139610447231</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.2492341693070669</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.1929159646196455</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-16.38642148143109</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-17.627892006164</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.4425339435024051</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.4312810722825314</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0.9502478447043941</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>3.455969530947346</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.03704157083189478</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.1419214525120989</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-4.220451763989702</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.3036479721698515</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>-0.07981404691144145</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.005715110144841468</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.087486506418372</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.640584334589456</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.1475608404902984</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.0824936388345275</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.08290541587454099</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.46172201688101</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.000637391821196355</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.08707659825959944</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
